--- a/config_4.13/rank_server.xlsx
+++ b/config_4.13/rank_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+award_rate配套的任务</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="645">
   <si>
     <t>id|</t>
   </si>
@@ -2713,12 +2747,62 @@
     <t>达人榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>榜上有礼·</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>348,355,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>349,356,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>350,357,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>351,358,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>352,358,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>353,359,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>354,360,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_id|任务id</t>
+  </si>
+  <si>
+    <t>award_rate|翻倍倍数</t>
+  </si>
+  <si>
+    <t>1,1.1,1.3,1.5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hlsyt_013_bsyl_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2780,6 +2864,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2820,7 +2917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,7 +2950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2959,9 +3056,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3239,11 +3333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4823,70 +4917,70 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
+    <row r="45" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
-      <c r="B45" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" s="38" t="s">
+      <c r="B45" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="26">
         <v>1617667200</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="26">
         <v>1618243199</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="26">
         <v>44</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="26">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="38">
+    <row r="46" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="26">
         <v>1617667200</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="26">
         <v>1618243199</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="26">
         <v>43</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="26">
         <v>45</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46" s="26">
         <v>43</v>
       </c>
     </row>
@@ -4923,6 +5017,41 @@
       </c>
       <c r="L47" s="26">
         <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="38">
+        <v>47</v>
+      </c>
+      <c r="B48" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1618272000</v>
+      </c>
+      <c r="F48" s="38">
+        <v>1618847999</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" s="38">
+        <v>45</v>
+      </c>
+      <c r="K48" s="38">
+        <v>47</v>
+      </c>
+      <c r="L48" s="38">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4933,11 +5062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
@@ -4946,12 +5075,12 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="4" max="7" width="19.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4968,12 +5097,18 @@
         <v>209</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4983,11 +5118,11 @@
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4997,11 +5132,11 @@
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5011,11 +5146,11 @@
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5025,11 +5160,11 @@
       <c r="C5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5039,11 +5174,11 @@
       <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5056,11 +5191,11 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5070,11 +5205,11 @@
       <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5087,11 +5222,11 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5105,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5119,7 +5254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5130,7 +5265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5141,7 +5276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5152,7 +5287,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5166,7 +5301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5180,7 +5315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5194,7 +5329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5208,7 +5343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5222,7 +5357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5236,7 +5371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5250,7 +5385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5264,7 +5399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5275,7 +5410,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5289,7 +5424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5303,7 +5438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>25</v>
       </c>
@@ -5317,8 +5452,10 @@
         <v>17</v>
       </c>
       <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5329,7 +5466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5340,7 +5477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5351,7 +5488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5362,7 +5499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5373,7 +5510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5384,7 +5521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5398,7 +5535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -5409,7 +5546,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -5420,7 +5557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5431,7 +5568,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -5445,7 +5582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -5459,7 +5596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -5473,7 +5610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -5487,7 +5624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -5502,8 +5639,10 @@
       </c>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -5518,8 +5657,10 @@
       </c>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -5533,7 +5674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5547,7 +5688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5561,7 +5702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5575,7 +5716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -5589,7 +5730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5603,7 +5744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5617,7 +5758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5631,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5645,7 +5786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5659,7 +5800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5673,7 +5814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5687,7 +5828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5701,7 +5842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5715,7 +5856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5729,7 +5870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5743,7 +5884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -5758,8 +5899,10 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -5774,8 +5917,10 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -5790,8 +5935,10 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -5806,8 +5953,10 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -5822,8 +5971,10 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -5838,8 +5989,10 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -5854,8 +6007,10 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -5870,8 +6025,10 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -5886,8 +6043,10 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -5902,8 +6061,10 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -5917,7 +6078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -5931,7 +6092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -5945,7 +6106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -5959,7 +6120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -5973,7 +6134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -5987,7 +6148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -6001,7 +6162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -6015,7 +6176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -6029,7 +6190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -6043,7 +6204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -6057,7 +6218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -6071,7 +6232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -6085,7 +6246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -6099,7 +6260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -6114,8 +6275,10 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -6130,8 +6293,10 @@
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -6146,8 +6311,10 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -6162,8 +6329,10 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -6178,8 +6347,10 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -6194,8 +6365,10 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -6210,8 +6383,10 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6226,8 +6401,10 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6242,8 +6419,10 @@
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6258,8 +6437,10 @@
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6274,8 +6455,10 @@
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -6290,87 +6473,143 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="36">
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="36">
+      <c r="B95" s="5">
         <v>43</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="36">
+      <c r="D95" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="36">
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="36">
+      <c r="B96" s="5">
         <v>43</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="36">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="36">
+      <c r="B97" s="5">
         <v>43</v>
       </c>
-      <c r="C97" s="40" t="s">
+      <c r="C97" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D97" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="36">
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="36">
+      <c r="B98" s="5">
         <v>43</v>
       </c>
-      <c r="C98" s="40" t="s">
+      <c r="C98" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D98" s="36">
+      <c r="D98" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>44</v>
       </c>
-      <c r="D99" s="2">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="36">
+        <v>99</v>
+      </c>
+      <c r="B100" s="36">
+        <v>45</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="36">
         <v>46</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1000518</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="36">
+        <v>100</v>
+      </c>
+      <c r="B101" s="36">
+        <v>45</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="36">
+        <v>46</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1000518</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7573,37 +7812,71 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="36">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="36">
+      <c r="B71" s="5">
         <v>45</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="36">
+      <c r="D71" s="5">
         <v>240000</v>
       </c>
-      <c r="E71" s="36">
+      <c r="E71" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="36">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="36">
+      <c r="B72" s="5">
         <v>45</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="36">
+      <c r="D72" s="5">
         <v>500</v>
       </c>
-      <c r="E72" s="36">
+      <c r="E72" s="5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="36">
+        <v>72</v>
+      </c>
+      <c r="B73" s="36">
+        <v>46</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" s="36">
+        <v>9</v>
+      </c>
+      <c r="E73" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="36">
+        <v>73</v>
+      </c>
+      <c r="B74" s="36">
+        <v>46</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="36">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7713,11 +7986,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8744,49 +9017,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+    <row r="45" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="36">
-        <v>1</v>
-      </c>
-      <c r="C45" s="36">
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5">
         <v>20</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="5">
         <v>100</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="5">
         <v>20</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="5">
         <v>180</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+    <row r="46" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="36">
-        <v>1</v>
-      </c>
-      <c r="C46" s="36">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
         <v>20</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="5">
         <v>100</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="5">
         <v>20</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="5">
         <v>180</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="5">
         <v>10</v>
       </c>
     </row>
@@ -8810,6 +9083,29 @@
         <v>180</v>
       </c>
       <c r="G47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="36">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36">
+        <v>1</v>
+      </c>
+      <c r="C48" s="36">
+        <v>20</v>
+      </c>
+      <c r="D48" s="36">
+        <v>100</v>
+      </c>
+      <c r="E48" s="36">
+        <v>20</v>
+      </c>
+      <c r="F48" s="36">
+        <v>180</v>
+      </c>
+      <c r="G48" s="36">
         <v>10</v>
       </c>
     </row>
@@ -8821,11 +9117,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="A14:D14"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9422,31 +9718,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+    <row r="43" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="5">
         <v>46</v>
       </c>
-      <c r="C43" s="36">
-        <v>1</v>
-      </c>
-      <c r="D43" s="36">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="36">
+    <row r="44" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="5">
         <v>47</v>
       </c>
-      <c r="C44" s="36">
-        <v>1</v>
-      </c>
-      <c r="D44" s="36">
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
         <v>43</v>
       </c>
     </row>
@@ -9462,6 +9758,20 @@
       </c>
       <c r="D45" s="2">
         <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="36">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36">
+        <v>49</v>
+      </c>
+      <c r="C46" s="36">
+        <v>1</v>
+      </c>
+      <c r="D46" s="36">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -9473,11 +9783,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10021,24 +10331,24 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="36">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="5">
         <v>1618243199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="36">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="5">
         <v>1618243199</v>
       </c>
     </row>
@@ -10051,6 +10361,17 @@
       </c>
       <c r="C49" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="36">
+        <v>49</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="C50" s="36">
+        <v>1618847999</v>
       </c>
     </row>
   </sheetData>
@@ -10061,11 +10382,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I295"/>
+  <dimension ref="A1:I302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A282" sqref="A282:H295"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H292" sqref="H292:H293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16594,368 +16915,564 @@
       </c>
       <c r="I281" s="5"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A282" s="36">
+    <row r="282" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
         <v>281</v>
       </c>
-      <c r="B282" s="36">
+      <c r="B282" s="5">
         <v>42</v>
       </c>
-      <c r="C282" s="36">
-        <v>1</v>
-      </c>
-      <c r="D282" s="36">
-        <v>1</v>
-      </c>
-      <c r="E282" s="36">
+      <c r="C282" s="5">
+        <v>1</v>
+      </c>
+      <c r="D282" s="5">
+        <v>1</v>
+      </c>
+      <c r="E282" s="5">
         <v>100000</v>
       </c>
-      <c r="F282" s="36">
+      <c r="F282" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G282" s="37" t="s">
+      <c r="G282" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="H282" s="37" t="s">
+      <c r="H282" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A283" s="36">
+      <c r="I282" s="5"/>
+    </row>
+    <row r="283" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
         <v>282</v>
       </c>
-      <c r="B283" s="36">
+      <c r="B283" s="5">
         <v>42</v>
       </c>
-      <c r="C283" s="36">
+      <c r="C283" s="5">
         <v>2</v>
       </c>
-      <c r="D283" s="36">
+      <c r="D283" s="5">
         <v>2</v>
       </c>
-      <c r="E283" s="36">
+      <c r="E283" s="5">
         <v>60000</v>
       </c>
-      <c r="F283" s="36">
+      <c r="F283" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G283" s="37" t="s">
+      <c r="G283" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="H283" s="37" t="s">
+      <c r="H283" s="20" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A284" s="36">
+      <c r="I283" s="5"/>
+    </row>
+    <row r="284" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
         <v>283</v>
       </c>
-      <c r="B284" s="36">
+      <c r="B284" s="5">
         <v>42</v>
       </c>
-      <c r="C284" s="36">
+      <c r="C284" s="5">
         <v>3</v>
       </c>
-      <c r="D284" s="36">
+      <c r="D284" s="5">
         <v>3</v>
       </c>
-      <c r="E284" s="36">
+      <c r="E284" s="5">
         <v>30000</v>
       </c>
-      <c r="F284" s="36">
+      <c r="F284" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G284" s="37" t="s">
+      <c r="G284" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="H284" s="37" t="s">
+      <c r="H284" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A285" s="36">
+      <c r="I284" s="5"/>
+    </row>
+    <row r="285" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
         <v>284</v>
       </c>
-      <c r="B285" s="36">
+      <c r="B285" s="5">
         <v>42</v>
       </c>
-      <c r="C285" s="36">
+      <c r="C285" s="5">
         <v>4</v>
       </c>
-      <c r="D285" s="36">
+      <c r="D285" s="5">
         <v>6</v>
       </c>
-      <c r="E285" s="36">
+      <c r="E285" s="5">
         <v>15000</v>
       </c>
-      <c r="F285" s="36">
+      <c r="F285" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G285" s="37" t="s">
+      <c r="G285" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="H285" s="37" t="s">
+      <c r="H285" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A286" s="36">
+      <c r="I285" s="5"/>
+    </row>
+    <row r="286" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
         <v>285</v>
       </c>
-      <c r="B286" s="36">
+      <c r="B286" s="5">
         <v>42</v>
       </c>
-      <c r="C286" s="36">
+      <c r="C286" s="5">
         <v>7</v>
       </c>
-      <c r="D286" s="36">
+      <c r="D286" s="5">
         <v>10</v>
       </c>
-      <c r="E286" s="36">
+      <c r="E286" s="5">
         <v>10000</v>
       </c>
-      <c r="F286" s="36">
+      <c r="F286" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G286" s="37" t="s">
+      <c r="G286" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="H286" s="37" t="s">
+      <c r="H286" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A287" s="36">
+      <c r="I286" s="5"/>
+    </row>
+    <row r="287" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
         <v>286</v>
       </c>
-      <c r="B287" s="36">
+      <c r="B287" s="5">
         <v>42</v>
       </c>
-      <c r="C287" s="36">
+      <c r="C287" s="5">
         <v>11</v>
       </c>
-      <c r="D287" s="36">
+      <c r="D287" s="5">
         <v>15</v>
       </c>
-      <c r="E287" s="36">
+      <c r="E287" s="5">
         <v>6000</v>
       </c>
-      <c r="F287" s="36">
+      <c r="F287" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G287" s="37" t="s">
+      <c r="G287" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="H287" s="37" t="s">
+      <c r="H287" s="20" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A288" s="36">
+      <c r="I287" s="5"/>
+    </row>
+    <row r="288" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
         <v>287</v>
       </c>
-      <c r="B288" s="36">
+      <c r="B288" s="5">
         <v>42</v>
       </c>
-      <c r="C288" s="36">
+      <c r="C288" s="5">
         <v>16</v>
       </c>
-      <c r="D288" s="36">
+      <c r="D288" s="5">
         <v>20</v>
       </c>
-      <c r="E288" s="36">
+      <c r="E288" s="5">
         <v>3000</v>
       </c>
-      <c r="F288" s="36">
+      <c r="F288" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G288" s="37" t="s">
+      <c r="G288" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="H288" s="37" t="s">
+      <c r="H288" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A289" s="36">
+      <c r="I288" s="5"/>
+    </row>
+    <row r="289" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
         <v>288</v>
       </c>
-      <c r="B289" s="36">
+      <c r="B289" s="5">
         <v>43</v>
       </c>
-      <c r="C289" s="36">
-        <v>1</v>
-      </c>
-      <c r="D289" s="36">
-        <v>1</v>
-      </c>
-      <c r="E289" s="36">
+      <c r="C289" s="5">
+        <v>1</v>
+      </c>
+      <c r="D289" s="5">
+        <v>1</v>
+      </c>
+      <c r="E289" s="5">
         <v>1500000000</v>
       </c>
-      <c r="F289" s="36">
+      <c r="F289" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G289" s="37" t="s">
+      <c r="G289" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="H289" s="37" t="s">
+      <c r="H289" s="20" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A290" s="36">
+      <c r="I289" s="5"/>
+    </row>
+    <row r="290" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
         <v>289</v>
       </c>
-      <c r="B290" s="36">
+      <c r="B290" s="5">
         <v>43</v>
       </c>
-      <c r="C290" s="36">
+      <c r="C290" s="5">
         <v>2</v>
       </c>
-      <c r="D290" s="36">
+      <c r="D290" s="5">
         <v>2</v>
       </c>
-      <c r="E290" s="36">
+      <c r="E290" s="5">
         <v>900000000</v>
       </c>
-      <c r="F290" s="36">
+      <c r="F290" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G290" s="37" t="s">
+      <c r="G290" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="H290" s="37" t="s">
+      <c r="H290" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" s="36">
+      <c r="I290" s="5"/>
+    </row>
+    <row r="291" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
         <v>290</v>
       </c>
-      <c r="B291" s="36">
+      <c r="B291" s="5">
         <v>43</v>
       </c>
-      <c r="C291" s="36">
+      <c r="C291" s="5">
         <v>3</v>
       </c>
-      <c r="D291" s="36">
+      <c r="D291" s="5">
         <v>3</v>
       </c>
-      <c r="E291" s="36">
+      <c r="E291" s="5">
         <v>450000000</v>
       </c>
-      <c r="F291" s="36">
+      <c r="F291" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G291" s="37" t="s">
+      <c r="G291" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="H291" s="37" t="s">
+      <c r="H291" s="20" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A292" s="36">
+      <c r="I291" s="5"/>
+    </row>
+    <row r="292" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
         <v>291</v>
       </c>
-      <c r="B292" s="36">
+      <c r="B292" s="5">
         <v>43</v>
       </c>
-      <c r="C292" s="36">
+      <c r="C292" s="5">
         <v>4</v>
       </c>
-      <c r="D292" s="36">
+      <c r="D292" s="5">
         <v>6</v>
       </c>
-      <c r="E292" s="36">
+      <c r="E292" s="5">
         <v>220000000</v>
       </c>
-      <c r="F292" s="36">
+      <c r="F292" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G292" s="37" t="s">
+      <c r="G292" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="H292" s="37" t="s">
+      <c r="H292" s="20" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" s="36">
+      <c r="I292" s="5"/>
+    </row>
+    <row r="293" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
         <v>292</v>
       </c>
-      <c r="B293" s="36">
+      <c r="B293" s="5">
         <v>43</v>
       </c>
-      <c r="C293" s="36">
+      <c r="C293" s="5">
         <v>7</v>
       </c>
-      <c r="D293" s="36">
+      <c r="D293" s="5">
         <v>10</v>
       </c>
-      <c r="E293" s="36">
+      <c r="E293" s="5">
         <v>146000000</v>
       </c>
-      <c r="F293" s="36">
+      <c r="F293" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G293" s="37" t="s">
+      <c r="G293" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="H293" s="37" t="s">
+      <c r="H293" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" s="36">
+      <c r="I293" s="5"/>
+    </row>
+    <row r="294" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
         <v>293</v>
       </c>
-      <c r="B294" s="36">
+      <c r="B294" s="5">
         <v>43</v>
       </c>
-      <c r="C294" s="36">
+      <c r="C294" s="5">
         <v>11</v>
       </c>
-      <c r="D294" s="36">
+      <c r="D294" s="5">
         <v>15</v>
       </c>
-      <c r="E294" s="36">
+      <c r="E294" s="5">
         <v>88000000</v>
       </c>
-      <c r="F294" s="36">
+      <c r="F294" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G294" s="37" t="s">
+      <c r="G294" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="H294" s="37" t="s">
+      <c r="H294" s="20" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="36">
+      <c r="I294" s="5"/>
+    </row>
+    <row r="295" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
         <v>294</v>
       </c>
-      <c r="B295" s="36">
+      <c r="B295" s="5">
         <v>43</v>
       </c>
-      <c r="C295" s="36">
+      <c r="C295" s="5">
         <v>16</v>
       </c>
-      <c r="D295" s="36">
+      <c r="D295" s="5">
         <v>20</v>
       </c>
-      <c r="E295" s="36">
+      <c r="E295" s="5">
         <v>45000000</v>
       </c>
-      <c r="F295" s="36">
+      <c r="F295" s="5">
         <v>99999999999</v>
       </c>
-      <c r="G295" s="37" t="s">
+      <c r="G295" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="H295" s="37" t="s">
+      <c r="H295" s="20" t="s">
         <v>598</v>
+      </c>
+      <c r="I295" s="5"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296" s="36">
+        <v>295</v>
+      </c>
+      <c r="B296" s="36">
+        <v>44</v>
+      </c>
+      <c r="C296" s="36">
+        <v>1</v>
+      </c>
+      <c r="D296" s="36">
+        <v>1</v>
+      </c>
+      <c r="E296" s="36">
+        <v>3000000</v>
+      </c>
+      <c r="F296" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G296" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="H296" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297" s="36">
+        <v>296</v>
+      </c>
+      <c r="B297" s="36">
+        <v>44</v>
+      </c>
+      <c r="C297" s="36">
+        <v>2</v>
+      </c>
+      <c r="D297" s="36">
+        <v>2</v>
+      </c>
+      <c r="E297" s="36">
+        <v>1800000</v>
+      </c>
+      <c r="F297" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G297" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="H297" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" s="36">
+        <v>297</v>
+      </c>
+      <c r="B298" s="36">
+        <v>44</v>
+      </c>
+      <c r="C298" s="36">
+        <v>3</v>
+      </c>
+      <c r="D298" s="36">
+        <v>3</v>
+      </c>
+      <c r="E298" s="36">
+        <v>900000</v>
+      </c>
+      <c r="F298" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G298" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="H298" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299" s="36">
+        <v>298</v>
+      </c>
+      <c r="B299" s="36">
+        <v>44</v>
+      </c>
+      <c r="C299" s="36">
+        <v>4</v>
+      </c>
+      <c r="D299" s="36">
+        <v>6</v>
+      </c>
+      <c r="E299" s="36">
+        <v>450000</v>
+      </c>
+      <c r="F299" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G299" s="37" t="s">
+        <v>637</v>
+      </c>
+      <c r="H299" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300" s="36">
+        <v>299</v>
+      </c>
+      <c r="B300" s="36">
+        <v>44</v>
+      </c>
+      <c r="C300" s="36">
+        <v>7</v>
+      </c>
+      <c r="D300" s="36">
+        <v>10</v>
+      </c>
+      <c r="E300" s="36">
+        <v>300000</v>
+      </c>
+      <c r="F300" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G300" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="H300" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301" s="36">
+        <v>300</v>
+      </c>
+      <c r="B301" s="36">
+        <v>44</v>
+      </c>
+      <c r="C301" s="36">
+        <v>11</v>
+      </c>
+      <c r="D301" s="36">
+        <v>15</v>
+      </c>
+      <c r="E301" s="36">
+        <v>180000</v>
+      </c>
+      <c r="F301" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G301" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="H301" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302" s="36">
+        <v>301</v>
+      </c>
+      <c r="B302" s="36">
+        <v>44</v>
+      </c>
+      <c r="C302" s="36">
+        <v>16</v>
+      </c>
+      <c r="D302" s="36">
+        <v>20</v>
+      </c>
+      <c r="E302" s="36">
+        <v>90000</v>
+      </c>
+      <c r="F302" s="36">
+        <v>99999999999</v>
+      </c>
+      <c r="G302" s="37" t="s">
+        <v>640</v>
+      </c>
+      <c r="H302" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -16967,11 +17484,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A327" sqref="A327:F352"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L365" sqref="L365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23489,523 +24006,783 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="36">
+    <row r="327" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="5">
         <v>326</v>
       </c>
-      <c r="B327" s="36">
+      <c r="B327" s="5">
         <v>322</v>
       </c>
-      <c r="C327" s="37" t="s">
+      <c r="C327" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="D327" s="37" t="s">
+      <c r="D327" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="E327" s="36">
+      <c r="E327" s="5">
         <v>40000</v>
       </c>
-      <c r="F327" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="36">
+      <c r="F327" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="5">
         <v>327</v>
       </c>
-      <c r="B328" s="36">
+      <c r="B328" s="5">
         <v>323</v>
       </c>
-      <c r="C328" s="37" t="s">
+      <c r="C328" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D328" s="37" t="s">
+      <c r="D328" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E328" s="36">
+      <c r="E328" s="5">
         <v>15000</v>
       </c>
-      <c r="F328" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="36">
+      <c r="F328" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="5">
         <v>328</v>
       </c>
-      <c r="B329" s="36">
+      <c r="B329" s="5">
         <v>324</v>
       </c>
-      <c r="C329" s="37" t="s">
+      <c r="C329" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D329" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E329" s="36">
+      <c r="D329" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E329" s="5">
         <v>5000</v>
       </c>
-      <c r="F329" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="36">
+      <c r="F329" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="5">
         <v>329</v>
       </c>
-      <c r="B330" s="36">
+      <c r="B330" s="5">
         <v>325</v>
       </c>
-      <c r="C330" s="37" t="s">
+      <c r="C330" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="D330" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E330" s="36">
+      <c r="D330" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E330" s="5">
         <v>2200</v>
       </c>
-      <c r="F330" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="36">
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="5">
         <v>330</v>
       </c>
-      <c r="B331" s="36">
+      <c r="B331" s="5">
         <v>326</v>
       </c>
-      <c r="C331" s="37" t="s">
+      <c r="C331" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="D331" s="37" t="s">
+      <c r="D331" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E331" s="36">
+      <c r="E331" s="5">
         <v>1200</v>
       </c>
-      <c r="F331" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="36">
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="5">
         <v>331</v>
       </c>
-      <c r="B332" s="36">
+      <c r="B332" s="5">
         <v>327</v>
       </c>
-      <c r="C332" s="37" t="s">
+      <c r="C332" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="D332" s="37" t="s">
+      <c r="D332" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E332" s="36">
+      <c r="E332" s="5">
         <v>600</v>
       </c>
-      <c r="F332" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="36">
+      <c r="F332" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="5">
         <v>332</v>
       </c>
-      <c r="B333" s="36">
+      <c r="B333" s="5">
         <v>328</v>
       </c>
-      <c r="C333" s="37" t="s">
+      <c r="C333" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="D333" s="37" t="s">
+      <c r="D333" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E333" s="36">
+      <c r="E333" s="5">
         <v>300</v>
       </c>
-      <c r="F333" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="36">
+      <c r="F333" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="5">
         <v>333</v>
       </c>
-      <c r="B334" s="36">
+      <c r="B334" s="5">
         <v>329</v>
       </c>
-      <c r="C334" s="37" t="s">
+      <c r="C334" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D334" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E334" s="36">
+      <c r="D334" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E334" s="5">
         <v>60000</v>
       </c>
-      <c r="F334" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="36">
+      <c r="F334" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="5">
         <v>334</v>
       </c>
-      <c r="B335" s="36">
+      <c r="B335" s="5">
         <v>330</v>
       </c>
-      <c r="C335" s="37" t="s">
+      <c r="C335" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D335" s="37" t="s">
+      <c r="D335" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E335" s="36">
+      <c r="E335" s="5">
         <v>15000</v>
       </c>
-      <c r="F335" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="36">
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="5">
         <v>335</v>
       </c>
-      <c r="B336" s="36">
+      <c r="B336" s="5">
         <v>331</v>
       </c>
-      <c r="C336" s="37" t="s">
+      <c r="C336" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D336" s="37" t="s">
+      <c r="D336" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E336" s="36">
+      <c r="E336" s="5">
         <v>5000</v>
       </c>
-      <c r="F336" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="36">
+      <c r="F336" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="5">
         <v>336</v>
       </c>
-      <c r="B337" s="36">
+      <c r="B337" s="5">
         <v>332</v>
       </c>
-      <c r="C337" s="37" t="s">
+      <c r="C337" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="D337" s="37" t="s">
+      <c r="D337" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E337" s="36">
+      <c r="E337" s="5">
         <v>800</v>
       </c>
-      <c r="F337" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="36">
+      <c r="F337" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="5">
         <v>337</v>
       </c>
-      <c r="B338" s="36">
+      <c r="B338" s="5">
         <v>333</v>
       </c>
-      <c r="C338" s="37" t="s">
+      <c r="C338" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="D338" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E338" s="36">
+      <c r="D338" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E338" s="5">
         <v>400</v>
       </c>
-      <c r="F338" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="36">
+      <c r="F338" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="5">
         <v>338</v>
       </c>
-      <c r="B339" s="36">
+      <c r="B339" s="5">
         <v>334</v>
       </c>
-      <c r="C339" s="37" t="s">
+      <c r="C339" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="D339" s="37" t="s">
+      <c r="D339" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E339" s="36">
+      <c r="E339" s="5">
         <v>200</v>
       </c>
-      <c r="F339" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="36">
+      <c r="F339" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="5">
         <v>339</v>
       </c>
-      <c r="B340" s="36">
+      <c r="B340" s="5">
         <v>335</v>
       </c>
-      <c r="C340" s="37" t="s">
+      <c r="C340" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="D340" s="37" t="s">
+      <c r="D340" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="E340" s="36">
+      <c r="E340" s="5">
         <v>40000</v>
       </c>
-      <c r="F340" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="36">
+      <c r="F340" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="36">
+      <c r="B341" s="5">
         <v>336</v>
       </c>
-      <c r="C341" s="37" t="s">
+      <c r="C341" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D341" s="37" t="s">
+      <c r="D341" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E341" s="36">
+      <c r="E341" s="5">
         <v>15000</v>
       </c>
-      <c r="F341" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="36">
+      <c r="F341" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="5">
         <v>341</v>
       </c>
-      <c r="B342" s="36">
+      <c r="B342" s="5">
         <v>337</v>
       </c>
-      <c r="C342" s="37" t="s">
+      <c r="C342" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D342" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E342" s="36">
+      <c r="D342" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E342" s="5">
         <v>5000</v>
       </c>
-      <c r="F342" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="36">
+      <c r="F342" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="5">
         <v>342</v>
       </c>
-      <c r="B343" s="36">
+      <c r="B343" s="5">
         <v>338</v>
       </c>
-      <c r="C343" s="37" t="s">
+      <c r="C343" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="D343" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E343" s="36">
+      <c r="D343" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E343" s="5">
         <v>2200</v>
       </c>
-      <c r="F343" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="36">
+      <c r="F343" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="5">
         <v>343</v>
       </c>
-      <c r="B344" s="36">
+      <c r="B344" s="5">
         <v>339</v>
       </c>
-      <c r="C344" s="37" t="s">
+      <c r="C344" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="D344" s="37" t="s">
+      <c r="D344" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E344" s="36">
+      <c r="E344" s="5">
         <v>1200</v>
       </c>
-      <c r="F344" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="36">
+      <c r="F344" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="5">
         <v>344</v>
       </c>
-      <c r="B345" s="36">
+      <c r="B345" s="5">
         <v>340</v>
       </c>
-      <c r="C345" s="37" t="s">
+      <c r="C345" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="D345" s="37" t="s">
+      <c r="D345" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E345" s="36">
+      <c r="E345" s="5">
         <v>600</v>
       </c>
-      <c r="F345" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="36">
+      <c r="F345" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="5">
         <v>345</v>
       </c>
-      <c r="B346" s="36">
+      <c r="B346" s="5">
         <v>341</v>
       </c>
-      <c r="C346" s="37" t="s">
+      <c r="C346" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="D346" s="37" t="s">
+      <c r="D346" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E346" s="36">
+      <c r="E346" s="5">
         <v>300</v>
       </c>
-      <c r="F346" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="36">
+      <c r="F346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="5">
         <v>346</v>
       </c>
-      <c r="B347" s="36">
+      <c r="B347" s="5">
         <v>342</v>
       </c>
-      <c r="C347" s="37" t="s">
+      <c r="C347" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="D347" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E347" s="36">
+      <c r="D347" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E347" s="5">
         <v>60000</v>
       </c>
-      <c r="F347" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="36">
+      <c r="F347" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="5">
         <v>347</v>
       </c>
-      <c r="B348" s="36">
+      <c r="B348" s="5">
         <v>343</v>
       </c>
-      <c r="C348" s="37" t="s">
+      <c r="C348" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="D348" s="37" t="s">
+      <c r="D348" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E348" s="36">
+      <c r="E348" s="5">
         <v>15000</v>
       </c>
-      <c r="F348" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="36">
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="5">
         <v>348</v>
       </c>
-      <c r="B349" s="36">
+      <c r="B349" s="5">
         <v>344</v>
       </c>
-      <c r="C349" s="37" t="s">
+      <c r="C349" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="D349" s="37" t="s">
+      <c r="D349" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E349" s="36">
+      <c r="E349" s="5">
         <v>5000</v>
       </c>
-      <c r="F349" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="36">
+      <c r="F349" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="5">
         <v>349</v>
       </c>
-      <c r="B350" s="36">
+      <c r="B350" s="5">
         <v>345</v>
       </c>
-      <c r="C350" s="37" t="s">
+      <c r="C350" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="D350" s="37" t="s">
+      <c r="D350" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="E350" s="36">
+      <c r="E350" s="5">
         <v>800</v>
       </c>
-      <c r="F350" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="36">
+      <c r="F350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="5">
         <v>350</v>
       </c>
-      <c r="B351" s="36">
+      <c r="B351" s="5">
         <v>346</v>
       </c>
-      <c r="C351" s="37" t="s">
+      <c r="C351" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="D351" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E351" s="36">
+      <c r="D351" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E351" s="5">
         <v>400</v>
       </c>
-      <c r="F351" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="36">
+      <c r="F351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="5">
         <v>351</v>
       </c>
-      <c r="B352" s="36">
+      <c r="B352" s="5">
         <v>347</v>
       </c>
-      <c r="C352" s="37" t="s">
+      <c r="C352" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="D352" s="37" t="s">
+      <c r="D352" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E352" s="36">
+      <c r="E352" s="5">
         <v>200</v>
       </c>
-      <c r="F352" s="36">
+      <c r="F352" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="36">
+        <v>352</v>
+      </c>
+      <c r="B353" s="36">
+        <v>348</v>
+      </c>
+      <c r="C353" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="D353" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E353" s="36">
+        <v>40000</v>
+      </c>
+      <c r="F353" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="36">
+        <v>353</v>
+      </c>
+      <c r="B354" s="36">
+        <v>349</v>
+      </c>
+      <c r="C354" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D354" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E354" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F354" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="36">
+        <v>354</v>
+      </c>
+      <c r="B355" s="36">
+        <v>350</v>
+      </c>
+      <c r="C355" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D355" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E355" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F355" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="36">
+        <v>355</v>
+      </c>
+      <c r="B356" s="36">
+        <v>351</v>
+      </c>
+      <c r="C356" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="D356" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E356" s="36">
+        <v>2200</v>
+      </c>
+      <c r="F356" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="36">
+        <v>356</v>
+      </c>
+      <c r="B357" s="36">
+        <v>352</v>
+      </c>
+      <c r="C357" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D357" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E357" s="36">
+        <v>1200</v>
+      </c>
+      <c r="F357" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="36">
+        <v>357</v>
+      </c>
+      <c r="B358" s="36">
+        <v>353</v>
+      </c>
+      <c r="C358" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D358" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E358" s="36">
+        <v>600</v>
+      </c>
+      <c r="F358" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="36">
+        <v>358</v>
+      </c>
+      <c r="B359" s="36">
+        <v>354</v>
+      </c>
+      <c r="C359" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="D359" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E359" s="36">
+        <v>300</v>
+      </c>
+      <c r="F359" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="36">
+        <v>359</v>
+      </c>
+      <c r="B360" s="36">
+        <v>355</v>
+      </c>
+      <c r="C360" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D360" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E360" s="36">
+        <v>60000</v>
+      </c>
+      <c r="F360" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="36">
+        <v>360</v>
+      </c>
+      <c r="B361" s="36">
+        <v>356</v>
+      </c>
+      <c r="C361" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="D361" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E361" s="36">
+        <v>15000</v>
+      </c>
+      <c r="F361" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="36">
+        <v>361</v>
+      </c>
+      <c r="B362" s="36">
+        <v>357</v>
+      </c>
+      <c r="C362" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D362" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E362" s="36">
+        <v>5000</v>
+      </c>
+      <c r="F362" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="36">
+        <v>362</v>
+      </c>
+      <c r="B363" s="36">
+        <v>358</v>
+      </c>
+      <c r="C363" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D363" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E363" s="36">
+        <v>800</v>
+      </c>
+      <c r="F363" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="36">
+        <v>363</v>
+      </c>
+      <c r="B364" s="36">
+        <v>359</v>
+      </c>
+      <c r="C364" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="D364" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E364" s="36">
+        <v>400</v>
+      </c>
+      <c r="F364" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="36">
+        <v>364</v>
+      </c>
+      <c r="B365" s="36">
+        <v>360</v>
+      </c>
+      <c r="C365" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D365" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E365" s="36">
+        <v>200</v>
+      </c>
+      <c r="F365" s="36">
         <v>1</v>
       </c>
     </row>

--- a/config_4.13/rank_server.xlsx
+++ b/config_4.13/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="656">
   <si>
     <t>id|</t>
   </si>
@@ -2795,6 +2795,50 @@
   </si>
   <si>
     <t>hlsyt_013_bsyl_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jykp_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantanle_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zajindan_caishen_model_spend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2950,7 +2994,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3056,6 +3100,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5063,11 +5113,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6548,51 +6598,237 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="99" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="36">
+      <c r="C99" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="36">
+      <c r="B100" s="5">
+        <v>44</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5">
+        <v>44</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5">
+        <v>44</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5">
+        <v>44</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5">
+        <v>44</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5">
+        <v>44</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="1:8" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5">
+        <v>44</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5">
+        <v>44</v>
+      </c>
+      <c r="C107" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="D107" s="5">
+        <v>0</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>44</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5">
+        <v>44</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="D109" s="5">
+        <v>0</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>109</v>
+      </c>
+      <c r="B110" s="36">
         <v>45</v>
       </c>
-      <c r="C100" s="37" t="s">
+      <c r="C110" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D100" s="36">
+      <c r="D110" s="36">
         <v>46</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F110" s="2">
         <v>1000518</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="36">
-        <v>100</v>
-      </c>
-      <c r="B101" s="36">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="36">
         <v>45</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C111" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="D101" s="36">
+      <c r="D111" s="36">
         <v>46</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F111" s="2">
         <v>1000518</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>643</v>
       </c>
     </row>
@@ -6608,7 +6844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>

--- a/config_4.13/rank_server.xlsx
+++ b/config_4.13/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="668">
   <si>
     <t>id|</t>
   </si>
@@ -2839,6 +2839,54 @@
   </si>
   <si>
     <t>zajindan_caishen_model_spend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_xxlzb_rank</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>week</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>361,368,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>362,369,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>363,370,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>364,371,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>365,371,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>366,372,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>367,373,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3383,11 +3431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5104,6 +5152,41 @@
         <v>45</v>
       </c>
     </row>
+    <row r="49" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26">
+        <v>48</v>
+      </c>
+      <c r="B49" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="E49" s="26">
+        <v>1618243200</v>
+      </c>
+      <c r="F49" s="26">
+        <v>2555555555</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="I49" s="26">
+        <v>46</v>
+      </c>
+      <c r="K49" s="26">
+        <v>48</v>
+      </c>
+      <c r="L49" s="26">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5113,11 +5196,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6832,6 +6915,62 @@
         <v>643</v>
       </c>
     </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
+        <v>46</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>46</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>46</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>46</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="2">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6842,10 +6981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8113,6 +8252,40 @@
       </c>
       <c r="E74" s="36">
         <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>47</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="5">
+        <v>240000</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>47</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="5">
+        <v>500</v>
+      </c>
+      <c r="E76" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8222,11 +8395,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD46"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9345,6 +9518,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20</v>
+      </c>
+      <c r="D49" s="2">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2">
+        <v>180</v>
+      </c>
+      <c r="G49" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9353,11 +9549,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD44"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10010,6 +10206,20 @@
         <v>44</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>50</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10019,11 +10229,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10610,6 +10820,17 @@
         <v>1618847999</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10618,11 +10839,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H292" sqref="H292:H293"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I308" sqref="I308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17711,6 +17932,191 @@
         <v>136</v>
       </c>
     </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="2">
+        <v>45</v>
+      </c>
+      <c r="C303" s="5">
+        <v>1</v>
+      </c>
+      <c r="D303" s="5">
+        <v>1</v>
+      </c>
+      <c r="E303" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="F303" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G303" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="H303" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2">
+        <v>45</v>
+      </c>
+      <c r="C304" s="5">
+        <v>2</v>
+      </c>
+      <c r="D304" s="5">
+        <v>2</v>
+      </c>
+      <c r="E304" s="5">
+        <v>900000000</v>
+      </c>
+      <c r="F304" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G304" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="H304" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="2">
+        <v>45</v>
+      </c>
+      <c r="C305" s="5">
+        <v>3</v>
+      </c>
+      <c r="D305" s="5">
+        <v>3</v>
+      </c>
+      <c r="E305" s="5">
+        <v>450000000</v>
+      </c>
+      <c r="F305" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G305" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="H305" s="22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2">
+        <v>45</v>
+      </c>
+      <c r="C306" s="5">
+        <v>4</v>
+      </c>
+      <c r="D306" s="5">
+        <v>6</v>
+      </c>
+      <c r="E306" s="5">
+        <v>220000000</v>
+      </c>
+      <c r="F306" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G306" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="H306" s="22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="2">
+        <v>45</v>
+      </c>
+      <c r="C307" s="5">
+        <v>7</v>
+      </c>
+      <c r="D307" s="5">
+        <v>10</v>
+      </c>
+      <c r="E307" s="5">
+        <v>146000000</v>
+      </c>
+      <c r="F307" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G307" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="H307" s="22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="2">
+        <v>45</v>
+      </c>
+      <c r="C308" s="5">
+        <v>11</v>
+      </c>
+      <c r="D308" s="5">
+        <v>15</v>
+      </c>
+      <c r="E308" s="5">
+        <v>88000000</v>
+      </c>
+      <c r="F308" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="H308" s="22" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="2">
+        <v>45</v>
+      </c>
+      <c r="C309" s="5">
+        <v>16</v>
+      </c>
+      <c r="D309" s="5">
+        <v>20</v>
+      </c>
+      <c r="E309" s="5">
+        <v>45000000</v>
+      </c>
+      <c r="F309" s="5">
+        <v>99999999999</v>
+      </c>
+      <c r="G309" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="H309" s="22" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H310" s="22"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17720,11 +18126,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G365"/>
+  <dimension ref="A1:G378"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L365" sqref="L365"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K359" sqref="K359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25022,6 +25428,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="5">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5">
+        <v>361</v>
+      </c>
+      <c r="C366" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D366" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E366" s="5">
+        <v>40000</v>
+      </c>
+      <c r="F366" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="5">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5">
+        <v>362</v>
+      </c>
+      <c r="C367" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D367" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E367" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F367" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="5">
+        <v>367</v>
+      </c>
+      <c r="B368" s="5">
+        <v>363</v>
+      </c>
+      <c r="C368" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D368" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E368" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F368" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="5">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5">
+        <v>364</v>
+      </c>
+      <c r="C369" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D369" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E369" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F369" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="5">
+        <v>369</v>
+      </c>
+      <c r="B370" s="5">
+        <v>365</v>
+      </c>
+      <c r="C370" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D370" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E370" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F370" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371" s="5">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5">
+        <v>366</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="D371" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E371" s="5">
+        <v>600</v>
+      </c>
+      <c r="F371" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372" s="5">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5">
+        <v>367</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D372" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E372" s="5">
+        <v>300</v>
+      </c>
+      <c r="F372" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373" s="5">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5">
+        <v>368</v>
+      </c>
+      <c r="C373" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D373" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E373" s="5">
+        <v>60000</v>
+      </c>
+      <c r="F373" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374" s="5">
+        <v>373</v>
+      </c>
+      <c r="B374" s="5">
+        <v>369</v>
+      </c>
+      <c r="C374" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D374" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E374" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F374" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375" s="5">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5">
+        <v>370</v>
+      </c>
+      <c r="C375" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D375" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E375" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F375" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376" s="5">
+        <v>375</v>
+      </c>
+      <c r="B376" s="5">
+        <v>371</v>
+      </c>
+      <c r="C376" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="D376" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E376" s="5">
+        <v>800</v>
+      </c>
+      <c r="F376" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377" s="5">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5">
+        <v>372</v>
+      </c>
+      <c r="C377" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="D377" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E377" s="5">
+        <v>400</v>
+      </c>
+      <c r="F377" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378" s="5">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5">
+        <v>373</v>
+      </c>
+      <c r="C378" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="D378" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E378" s="5">
+        <v>200</v>
+      </c>
+      <c r="F378" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_4.13/rank_server.xlsx
+++ b/config_4.13/rank_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2748,10 +2748,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>榜上有礼·</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>fix_time</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2887,6 +2883,10 @@
   </si>
   <si>
     <t>367,373,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>榜上有礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3435,7 +3435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5125,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>644</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>632</v>
+        <v>643</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>667</v>
       </c>
       <c r="E48" s="38">
         <v>1618272000</v>
@@ -5160,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>264</v>
@@ -5230,10 +5230,10 @@
         <v>209</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>642</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>41</v>
@@ -6689,7 +6689,7 @@
         <v>44</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D99" s="5">
         <v>0</v>
@@ -6707,7 +6707,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D100" s="5">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>44</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>44</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D102" s="5">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>44</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D103" s="5">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>44</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D104" s="5">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>44</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D105" s="5">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>44</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D106" s="5">
         <v>0</v>
@@ -6833,7 +6833,7 @@
         <v>44</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D107" s="5">
         <v>0</v>
@@ -6851,7 +6851,7 @@
         <v>44</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D108" s="2">
         <v>0</v>
@@ -6865,7 +6865,7 @@
         <v>44</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D109" s="5">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>1000518</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -6912,7 +6912,7 @@
         <v>1000518</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -10814,7 +10814,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C50" s="36">
         <v>1618847999</v>
@@ -10825,7 +10825,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -17770,7 +17770,7 @@
         <v>99999999999</v>
       </c>
       <c r="G296" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H296" s="37" t="s">
         <v>136</v>
@@ -17796,7 +17796,7 @@
         <v>99999999999</v>
       </c>
       <c r="G297" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H297" s="37" t="s">
         <v>136</v>
@@ -17822,7 +17822,7 @@
         <v>99999999999</v>
       </c>
       <c r="G298" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H298" s="37" t="s">
         <v>136</v>
@@ -17848,7 +17848,7 @@
         <v>99999999999</v>
       </c>
       <c r="G299" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H299" s="37" t="s">
         <v>136</v>
@@ -17874,7 +17874,7 @@
         <v>99999999999</v>
       </c>
       <c r="G300" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H300" s="37" t="s">
         <v>136</v>
@@ -17900,7 +17900,7 @@
         <v>99999999999</v>
       </c>
       <c r="G301" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H301" s="37" t="s">
         <v>136</v>
@@ -17926,7 +17926,7 @@
         <v>99999999999</v>
       </c>
       <c r="G302" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H302" s="37" t="s">
         <v>136</v>
@@ -17952,10 +17952,10 @@
         <v>99999999999</v>
       </c>
       <c r="G303" s="22" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H303" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -17978,10 +17978,10 @@
         <v>99999999999</v>
       </c>
       <c r="G304" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H304" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -18004,10 +18004,10 @@
         <v>99999999999</v>
       </c>
       <c r="G305" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H305" s="22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -18030,10 +18030,10 @@
         <v>99999999999</v>
       </c>
       <c r="G306" s="22" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H306" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -18056,10 +18056,10 @@
         <v>99999999999</v>
       </c>
       <c r="G307" s="22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H307" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -18082,10 +18082,10 @@
         <v>99999999999</v>
       </c>
       <c r="G308" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H308" s="22" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -18108,10 +18108,10 @@
         <v>99999999999</v>
       </c>
       <c r="G309" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H309" s="22" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
